--- a/result/table/RQ3-3.xlsx
+++ b/result/table/RQ3-3.xlsx
@@ -46,25 +46,25 @@
     <t>XGMP</t>
   </si>
   <si>
-    <t>0.7136</t>
-  </si>
-  <si>
-    <t>0.7154</t>
-  </si>
-  <si>
-    <t>0.7980</t>
-  </si>
-  <si>
-    <t>0.7113</t>
-  </si>
-  <si>
-    <t>0.7152</t>
-  </si>
-  <si>
-    <t>0.7940</t>
-  </si>
-  <si>
-    <t>0.7998</t>
+    <t>0.7131</t>
+  </si>
+  <si>
+    <t>0.715</t>
+  </si>
+  <si>
+    <t>0.7975</t>
+  </si>
+  <si>
+    <t>0.7109</t>
+  </si>
+  <si>
+    <t>0.7148</t>
+  </si>
+  <si>
+    <t>0.7935</t>
+  </si>
+  <si>
+    <t>0.7993</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
